--- a/regions/7/ckhovrebis done/shemosavlebi.xlsx
+++ b/regions/7/ckhovrebis done/shemosavlebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -688,20 +688,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XER59"/>
+  <dimension ref="A1:XET59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
-    <col min="2" max="12" width="11.42578125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="14" width="9.140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -716,8 +716,10 @@
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="12">
         <v>2011</v>
@@ -752,8 +754,14 @@
       <c r="L2" s="13">
         <v>2021</v>
       </c>
+      <c r="M2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -787,11 +795,17 @@
       <c r="K3" s="9">
         <v>10.999208666421872</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="9">
         <v>12.160575672506608</v>
       </c>
+      <c r="M3" s="17">
+        <v>13.557984980192407</v>
+      </c>
+      <c r="N3" s="17">
+        <v>15.289669711876144</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -825,11 +839,17 @@
       <c r="K4" s="9">
         <v>9.1740469291222855</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="9">
         <v>10.153351913905119</v>
       </c>
+      <c r="M4" s="17">
+        <v>11.315960925760532</v>
+      </c>
+      <c r="N4" s="17">
+        <v>13.178108604360377</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -863,11 +883,17 @@
       <c r="K5" s="10">
         <v>3.1969180001866015</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="10">
         <v>4.0294477487573621</v>
       </c>
+      <c r="M5" s="18">
+        <v>4.7505803397488586</v>
+      </c>
+      <c r="N5" s="18">
+        <v>5.5888748339980427</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -901,11 +927,17 @@
       <c r="K6" s="10">
         <v>0.35460698167641957</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="10">
         <v>0.40547965440591177</v>
       </c>
+      <c r="M6" s="18">
+        <v>0.52400470109621677</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.41695590233453106</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
@@ -939,11 +971,17 @@
       <c r="K7" s="10">
         <v>0.95201361905180626</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="10">
         <v>1.0497821152593929</v>
       </c>
+      <c r="M7" s="18">
+        <v>0.82262605392514088</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0.9076186682804267</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
@@ -977,11 +1015,17 @@
       <c r="K8" s="10">
         <v>2.5329950141906733E-2</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="10">
         <v>2.9746638043721515E-2</v>
       </c>
+      <c r="M8" s="18">
+        <v>4.634533652305603E-2</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0.11307164958556494</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
@@ -1015,11 +1059,17 @@
       <c r="K9" s="10">
         <v>3.6158999681857429</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="10">
         <v>3.8087774478885335</v>
       </c>
+      <c r="M9" s="18">
+        <v>4.1301506668628045</v>
+      </c>
+      <c r="N9" s="18">
+        <v>4.7784671508070629</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
@@ -1053,11 +1103,17 @@
       <c r="K10" s="10">
         <v>7.9910498741944641E-2</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="10">
         <v>0.11156937320756911</v>
       </c>
+      <c r="M10" s="18">
+        <v>0.12173339267047247</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0.20735849773089093</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>6</v>
       </c>
@@ -1091,11 +1147,17 @@
       <c r="K11" s="10">
         <v>0.94936791113785979</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="10">
         <v>0.71854893634262684</v>
       </c>
+      <c r="M11" s="18">
+        <v>0.9205204349339805</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1.1657619016238563</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1129,11 +1191,17 @@
       <c r="K12" s="9">
         <v>1.825161737299589</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="9">
         <v>2.0072237586014898</v>
       </c>
+      <c r="M12" s="17">
+        <v>2.2420240544318739</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2.1115611075157621</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
@@ -1167,11 +1235,17 @@
       <c r="K13" s="9">
         <v>0.84496178084293994</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="9">
         <v>0.59798693093299859</v>
       </c>
+      <c r="M13" s="17">
+        <v>0.95955186787064894</v>
+      </c>
+      <c r="N13" s="17">
+        <v>1.1511030469082193</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1205,11 +1279,17 @@
       <c r="K14" s="10">
         <v>0</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="10">
         <v>1.8594630559285483E-2</v>
       </c>
+      <c r="M14" s="18">
+        <v>2.5146855354309081E-2</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0.13240717124938964</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
@@ -1243,11 +1323,17 @@
       <c r="K15" s="10">
         <v>0.84496178084293994</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="10">
         <v>0.57939230037371314</v>
       </c>
+      <c r="M15" s="18">
+        <v>0.93440501251633989</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1.0186958756588302</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1281,11 +1367,17 @@
       <c r="K16" s="9">
         <v>10.01900870996522</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="9">
         <v>10.751338844838115</v>
       </c>
+      <c r="M16" s="17">
+        <v>12.275512793631179</v>
+      </c>
+      <c r="N16" s="17">
+        <v>14.329211651268595</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
@@ -1319,11 +1411,17 @@
       <c r="K17" s="11">
         <v>11.84417044726481</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="11">
         <v>12.758562603439609</v>
       </c>
+      <c r="M17" s="19">
+        <v>14.517536848063058</v>
+      </c>
+      <c r="N17" s="19">
+        <v>16.440772758784359</v>
+      </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1335,8 +1433,9 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1347,7 +1446,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="22" t="s">
         <v>19</v>
       </c>
@@ -1362,8 +1461,10 @@
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="12">
         <v>2011</v>
@@ -1398,8 +1499,14 @@
       <c r="L21" s="13">
         <v>2021</v>
       </c>
+      <c r="M21" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
@@ -1433,11 +1540,17 @@
       <c r="K22" s="9">
         <v>1020.710391123936</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="9">
         <v>1143.092364082934</v>
       </c>
+      <c r="M22" s="20">
+        <v>1334.2584114769368</v>
+      </c>
+      <c r="N22" s="20">
+        <v>1520.457504609052</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>10</v>
       </c>
@@ -1471,11 +1584,17 @@
       <c r="K23" s="9">
         <v>851.33806560103608</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="9">
         <v>954.4136194861112</v>
       </c>
+      <c r="M23" s="17">
+        <v>1113.6179949452981</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1310.4765833162144</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>0</v>
       </c>
@@ -1509,11 +1628,17 @@
       <c r="K24" s="10">
         <v>296.66928970292349</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="10">
         <v>378.7675088021789</v>
       </c>
+      <c r="M24" s="18">
+        <v>467.51060625654469</v>
+      </c>
+      <c r="N24" s="18">
+        <v>555.7769947818108</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
@@ -1547,11 +1672,17 @@
       <c r="K25" s="10">
         <v>32.907006489218837</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="10">
         <v>38.115029191446595</v>
       </c>
+      <c r="M25" s="18">
+        <v>51.567963905589409</v>
+      </c>
+      <c r="N25" s="18">
+        <v>41.463533401454058</v>
+      </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1585,11 +1716,17 @@
       <c r="K26" s="10">
         <v>88.345464017257726</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="10">
         <v>98.679367837566531</v>
       </c>
+      <c r="M26" s="18">
+        <v>80.955668084397232</v>
+      </c>
+      <c r="N26" s="18">
+        <v>90.256731604760986</v>
+      </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
@@ -1623,11 +1760,17 @@
       <c r="K27" s="10">
         <v>2.3505821282783343</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="10">
         <v>2.7961796974623025</v>
       </c>
+      <c r="M27" s="18">
+        <v>4.5609030529947709</v>
+      </c>
+      <c r="N27" s="18">
+        <v>11.244234925320793</v>
+      </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
@@ -1661,11 +1804,17 @@
       <c r="K28" s="10">
         <v>335.5502002665923</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="10">
         <v>358.02453226091723</v>
       </c>
+      <c r="M28" s="18">
+        <v>406.45333919307626</v>
+      </c>
+      <c r="N28" s="18">
+        <v>475.18725890651785</v>
+      </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
@@ -1699,11 +1848,17 @@
       <c r="K29" s="10">
         <v>7.4155767837008391</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="10">
         <v>10.487505033781288</v>
       </c>
+      <c r="M29" s="18">
+        <v>11.979936794847942</v>
+      </c>
+      <c r="N29" s="18">
+        <v>20.620444388965502</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>6</v>
       </c>
@@ -1737,11 +1892,17 @@
       <c r="K30" s="10">
         <v>88.099946213064413</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="10">
         <v>67.543496662758386</v>
       </c>
+      <c r="M30" s="18">
+        <v>90.589577657847613</v>
+      </c>
+      <c r="N30" s="18">
+        <v>115.92738530738453</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>11</v>
       </c>
@@ -1775,11 +1936,17 @@
       <c r="K31" s="9">
         <v>169.37232552289976</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="9">
         <v>188.67874459682264</v>
       </c>
+      <c r="M31" s="17">
+        <v>220.64041653163861</v>
+      </c>
+      <c r="N31" s="17">
+        <v>209.98092129283725</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>12</v>
       </c>
@@ -1813,11 +1980,17 @@
       <c r="K32" s="9">
         <v>78.411210839364855</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="9">
         <v>56.210685495450825</v>
       </c>
+      <c r="M32" s="17">
+        <v>94.4307102290838</v>
+      </c>
+      <c r="N32" s="17">
+        <v>114.46965822227608</v>
+      </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="15" t="s">
         <v>7</v>
       </c>
@@ -1851,11 +2024,17 @@
       <c r="K33" s="10">
         <v>0</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="10">
         <v>1.747892597989247</v>
       </c>
+      <c r="M33" s="18">
+        <v>2.4747337696345926</v>
+      </c>
+      <c r="N33" s="18">
+        <v>13.167025905982582</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1889,11 +2068,17 @@
       <c r="K34" s="10">
         <v>78.411210839364855</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="10">
         <v>54.46279289746159</v>
       </c>
+      <c r="M34" s="18">
+        <v>91.955976459449204</v>
+      </c>
+      <c r="N34" s="18">
+        <v>101.30263231629351</v>
+      </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>13</v>
       </c>
@@ -1927,11 +2112,17 @@
       <c r="K35" s="9">
         <v>929.74927644040099</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="9">
         <v>1010.6243049815619</v>
       </c>
+      <c r="M35" s="17">
+        <v>1208.0487051743817</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1424.9462415384908</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="16" t="s">
         <v>14</v>
       </c>
@@ -1965,11 +2156,17 @@
       <c r="K36" s="11">
         <v>1099.1216019633005</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="11">
         <v>1199.3030495783851</v>
       </c>
+      <c r="M36" s="19">
+        <v>1428.6891217060202</v>
+      </c>
+      <c r="N36" s="19">
+        <v>1634.9271628313281</v>
+      </c>
     </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1981,8 +2178,9 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1993,7 +2191,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="39" spans="1:14" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A39" s="23" t="s">
         <v>20</v>
       </c>
@@ -2008,8 +2206,10 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="12">
         <v>2011</v>
@@ -2044,8 +2244,14 @@
       <c r="L40" s="13">
         <v>2021</v>
       </c>
+      <c r="M40" s="13">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>9</v>
       </c>
@@ -2079,11 +2285,17 @@
       <c r="K41" s="9">
         <v>378.23963821276953</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L41" s="9">
         <v>426.68686171845076</v>
       </c>
+      <c r="M41" s="17">
+        <v>490.9467339079726</v>
+      </c>
+      <c r="N41" s="17">
+        <v>573.69966624744097</v>
+      </c>
     </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>10</v>
       </c>
@@ -2117,11 +2329,17 @@
       <c r="K42" s="9">
         <v>315.47616711839299</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="9">
         <v>356.25795856539423</v>
       </c>
+      <c r="M42" s="17">
+        <v>409.76104234137676</v>
+      </c>
+      <c r="N42" s="17">
+        <v>494.46957655479554</v>
+      </c>
     </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>0</v>
       </c>
@@ -2155,11 +2373,17 @@
       <c r="K43" s="10">
         <v>109.93528211514818</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="10">
         <v>141.3841302153881</v>
       </c>
+      <c r="M43" s="18">
+        <v>172.02275303996029</v>
+      </c>
+      <c r="N43" s="18">
+        <v>209.70600983439834</v>
+      </c>
     </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>1</v>
       </c>
@@ -2193,11 +2417,17 @@
       <c r="K44" s="10">
         <v>12.194187829754439</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L44" s="10">
         <v>14.227356162118106</v>
       </c>
+      <c r="M44" s="18">
+        <v>18.974677795517088</v>
+      </c>
+      <c r="N44" s="18">
+        <v>15.645037892703362</v>
+      </c>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>2</v>
       </c>
@@ -2231,11 +2461,17 @@
       <c r="K45" s="10">
         <v>32.737744847323135</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L45" s="10">
         <v>36.834459840654702</v>
       </c>
+      <c r="M45" s="18">
+        <v>29.788023440959748</v>
+      </c>
+      <c r="N45" s="18">
+        <v>34.055707996620569</v>
+      </c>
     </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
@@ -2269,11 +2505,17 @@
       <c r="K46" s="10">
         <v>0.87104367852119335</v>
       </c>
-      <c r="L46" s="18">
+      <c r="L46" s="10">
         <v>1.043741676000274</v>
       </c>
+      <c r="M46" s="18">
+        <v>1.6782059893930739</v>
+      </c>
+      <c r="N46" s="18">
+        <v>4.2426794595111197</v>
+      </c>
     </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>4</v>
       </c>
@@ -2307,11 +2549,17 @@
       <c r="K47" s="10">
         <v>124.3431902474359</v>
       </c>
-      <c r="L47" s="18">
+      <c r="L47" s="10">
         <v>133.64131271332994</v>
       </c>
+      <c r="M47" s="18">
+        <v>149.55644097603604</v>
+      </c>
+      <c r="N47" s="18">
+        <v>179.29785673937783</v>
+      </c>
     </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>5</v>
       </c>
@@ -2345,11 +2593,17 @@
       <c r="K48" s="10">
         <v>2.7479538801574219</v>
       </c>
-      <c r="L48" s="18">
+      <c r="L48" s="10">
         <v>3.9147148128407312</v>
       </c>
+      <c r="M48" s="18">
+        <v>4.4080747711712718</v>
+      </c>
+      <c r="N48" s="18">
+        <v>7.7805147647748321</v>
+      </c>
     </row>
-    <row r="49" spans="1:16372" ht="15" customHeight="1">
+    <row r="49" spans="1:16374" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>6</v>
       </c>
@@ -2383,11 +2637,17 @@
       <c r="K49" s="10">
         <v>32.646764520052628</v>
       </c>
-      <c r="L49" s="18">
+      <c r="L49" s="10">
         <v>25.212243145062313</v>
       </c>
+      <c r="M49" s="18">
+        <v>33.3328663283392</v>
+      </c>
+      <c r="N49" s="18">
+        <v>43.74176986740958</v>
+      </c>
     </row>
-    <row r="50" spans="1:16372" ht="15" customHeight="1">
+    <row r="50" spans="1:16374" ht="15" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>11</v>
       </c>
@@ -2421,11 +2681,17 @@
       <c r="K50" s="9">
         <v>62.763471094376662</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L50" s="9">
         <v>70.428903153056481</v>
       </c>
+      <c r="M50" s="17">
+        <v>81.185691566595793</v>
+      </c>
+      <c r="N50" s="17">
+        <v>79.23008969264535</v>
+      </c>
     </row>
-    <row r="51" spans="1:16372" ht="15" customHeight="1">
+    <row r="51" spans="1:16374" ht="15" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>12</v>
       </c>
@@ -2459,11 +2725,17 @@
       <c r="K51" s="9">
         <v>29.056457421824593</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L51" s="9">
         <v>20.981997380709149</v>
       </c>
+      <c r="M51" s="17">
+        <v>34.746229342680991</v>
+      </c>
+      <c r="N51" s="17">
+        <v>43.191739669478061</v>
+      </c>
     </row>
-    <row r="52" spans="1:16372" ht="15" customHeight="1">
+    <row r="52" spans="1:16374" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>7</v>
       </c>
@@ -2497,11 +2769,17 @@
       <c r="K52" s="10">
         <v>0</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="10">
         <v>0.65244317142759933</v>
       </c>
+      <c r="M52" s="18">
+        <v>0.91059007089112831</v>
+      </c>
+      <c r="N52" s="18">
+        <v>4.9681877624563535</v>
+      </c>
     </row>
-    <row r="53" spans="1:16372" ht="15" customHeight="1">
+    <row r="53" spans="1:16374" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2535,11 +2813,17 @@
       <c r="K53" s="10">
         <v>29.056457421824593</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="10">
         <v>20.329554209281554</v>
       </c>
+      <c r="M53" s="18">
+        <v>33.835639271789859</v>
+      </c>
+      <c r="N53" s="18">
+        <v>38.223551907021715</v>
+      </c>
     </row>
-    <row r="54" spans="1:16372" ht="15" customHeight="1">
+    <row r="54" spans="1:16374" ht="15" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>13</v>
       </c>
@@ -2573,11 +2857,17 @@
       <c r="K54" s="9">
         <v>344.53262454021751</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L54" s="9">
         <v>377.23995594610324</v>
       </c>
+      <c r="M54" s="17">
+        <v>444.50727168405768</v>
+      </c>
+      <c r="N54" s="17">
+        <v>537.66131622427361</v>
+      </c>
     </row>
-    <row r="55" spans="1:16372" ht="15" customHeight="1">
+    <row r="55" spans="1:16374" ht="15" customHeight="1">
       <c r="A55" s="16" t="s">
         <v>14</v>
       </c>
@@ -2611,11 +2901,17 @@
       <c r="K55" s="11">
         <v>407.29609563459417</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L55" s="11">
         <v>447.66885909915987</v>
       </c>
+      <c r="M55" s="19">
+        <v>525.69296325065363</v>
+      </c>
+      <c r="N55" s="19">
+        <v>616.8914059169191</v>
+      </c>
     </row>
-    <row r="56" spans="1:16372" ht="15" customHeight="1">
+    <row r="56" spans="1:16374" ht="15" customHeight="1">
       <c r="A56" s="24" t="s">
         <v>17</v>
       </c>
@@ -2630,8 +2926,10 @@
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="1:16372" ht="15" customHeight="1">
+    <row r="57" spans="1:16374" ht="15" customHeight="1">
       <c r="A57" s="25" t="s">
         <v>15</v>
       </c>
@@ -2646,8 +2944,8 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="2"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="4"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="4"/>
@@ -19006,8 +19304,10 @@
       <c r="XEP57" s="2"/>
       <c r="XEQ57" s="4"/>
       <c r="XER57" s="2"/>
+      <c r="XES57" s="4"/>
+      <c r="XET57" s="2"/>
     </row>
-    <row r="58" spans="1:16372" ht="15" customHeight="1">
+    <row r="58" spans="1:16374" ht="15" customHeight="1">
       <c r="A58" s="21" t="s">
         <v>16</v>
       </c>
@@ -19022,8 +19322,10 @@
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
     </row>
-    <row r="59" spans="1:16372" ht="15" customHeight="1">
+    <row r="59" spans="1:16374" ht="15" customHeight="1">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -19038,12 +19340,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A59:J59"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
